--- a/exports/user(35)_transactions.xlsx
+++ b/exports/user(35)_transactions.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+  <si>
+    <t>User Name: Chaiyapat Santivimol</t>
+  </si>
+  <si>
+    <t>Created At: 2024-07-05 17:40:31</t>
+  </si>
   <si>
     <t>Transaction ID</t>
   </si>
   <si>
-    <t>Category ID</t>
+    <t>Categorie ID</t>
   </si>
   <si>
     <t>Datetime</t>
@@ -40,6 +46,18 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>2024-06-01 00:00:00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>เงินเดือน</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
     <t>2024-06-26 00:00:00</t>
   </si>
   <si>
@@ -61,9 +79,6 @@
     <t>ข้าวขาหมู</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2024-06-28 10:49:57</t>
   </si>
   <si>
@@ -91,9 +106,6 @@
     <t>รายได้อื่นๆ</t>
   </si>
   <si>
-    <t>income</t>
-  </si>
-  <si>
     <t>13:Family, 14:Home</t>
   </si>
   <si>
@@ -145,7 +157,43 @@
     <t>12:Intern, 29:KMUTT</t>
   </si>
   <si>
-    <t>2024-07-02 10:34:32</t>
+    <t>2024-07-02 00:00:00</t>
+  </si>
+  <si>
+    <t>ซื้อสลาก</t>
+  </si>
+  <si>
+    <t>ความบันเทิง</t>
+  </si>
+  <si>
+    <t>28:invest</t>
+  </si>
+  <si>
+    <t>ข้าว</t>
+  </si>
+  <si>
+    <t>2024-07-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-07-03 18:33:21</t>
+  </si>
+  <si>
+    <t>2024-07-04 10:19:46</t>
+  </si>
+  <si>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>การศึกษา</t>
+  </si>
+  <si>
+    <t>2024-07-04 10:45:00</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>รายได้จากการลงทุน</t>
   </si>
 </sst>
 </file>
@@ -531,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I23"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -543,381 +591,594 @@
     <col min="9" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>59</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>12000</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>50</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>250</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>78</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>83</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>84</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>82</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>86</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>5000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
-        <v>20</v>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>87</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/exports/user(35)_transactions.xlsx
+++ b/exports/user(35)_transactions.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
   <si>
     <t>User Name: Chaiyapat Santivimol</t>
   </si>
   <si>
-    <t>Created At: 2024-07-05 17:40:31</t>
+    <t>Created At: 2024-07-09 17:18:03</t>
+  </si>
+  <si>
+    <t>Date Selected: 2024-07-02 - 2024-07-11</t>
   </si>
   <si>
     <t>Transaction ID</t>
@@ -46,154 +49,91 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>2024-06-01 00:00:00</t>
+    <t>2024-07-02 00:00:00</t>
+  </si>
+  <si>
+    <t>ซื้อสลาก</t>
+  </si>
+  <si>
+    <t>ความบันเทิง</t>
+  </si>
+  <si>
+    <t>expenses</t>
+  </si>
+  <si>
+    <t>28:invest</t>
+  </si>
+  <si>
+    <t>วิน</t>
+  </si>
+  <si>
+    <t>ค่าเดินทาง</t>
+  </si>
+  <si>
+    <t>12:Intern</t>
+  </si>
+  <si>
+    <t>ข้าว</t>
+  </si>
+  <si>
+    <t>อาหาร</t>
+  </si>
+  <si>
+    <t>2024-07-03 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-07-03 18:33:21</t>
+  </si>
+  <si>
+    <t>2024-07-04 10:19:46</t>
+  </si>
+  <si>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>การศึกษา</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>2024-07-04 10:45:00</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>รายได้จากการลงทุน</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>2024-07-08 00:00:00</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
     <t>เงินเดือน</t>
   </si>
   <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>2024-06-26 00:00:00</t>
-  </si>
-  <si>
-    <t>hh</t>
-  </si>
-  <si>
-    <t>อาหาร</t>
-  </si>
-  <si>
-    <t>expenses</t>
-  </si>
-  <si>
     <t>14:Home</t>
   </si>
   <si>
-    <t>2024-06-27 18:43:00</t>
-  </si>
-  <si>
-    <t>ข้าวขาหมู</t>
-  </si>
-  <si>
-    <t>2024-06-28 10:49:57</t>
-  </si>
-  <si>
-    <t>รถเมล์</t>
-  </si>
-  <si>
-    <t>ค่าเดินทาง</t>
-  </si>
-  <si>
-    <t>12:Intern</t>
-  </si>
-  <si>
-    <t>2024-06-28 17:00:03</t>
-  </si>
-  <si>
-    <t>ข้าวมันไก่</t>
-  </si>
-  <si>
-    <t>2024-06-28 17:00:54</t>
-  </si>
-  <si>
-    <t>แม่ให้ค่าขนม</t>
-  </si>
-  <si>
-    <t>รายได้อื่นๆ</t>
-  </si>
-  <si>
-    <t>13:Family, 14:Home</t>
-  </si>
-  <si>
-    <t>2024-06-28 17:01:23</t>
-  </si>
-  <si>
-    <t>เปลี่ยนถ่านนาฬิกา</t>
-  </si>
-  <si>
-    <t>อื่นๆ</t>
-  </si>
-  <si>
-    <t>2024-07-01 11:26:08</t>
-  </si>
-  <si>
-    <t>ขนม</t>
-  </si>
-  <si>
-    <t>2024-07-01 13:35:15</t>
-  </si>
-  <si>
-    <t>ก๋วยเตี๋ยว</t>
-  </si>
-  <si>
-    <t>2024-07-01 13:36:28</t>
-  </si>
-  <si>
-    <t>สลากกินแบ่งรัฐบาล</t>
-  </si>
-  <si>
-    <t>รางวัล</t>
-  </si>
-  <si>
-    <t>14:Home, 13:Family, 28:invest</t>
-  </si>
-  <si>
-    <t>2024-07-01 14:04:41</t>
-  </si>
-  <si>
-    <t>วิน</t>
-  </si>
-  <si>
-    <t>2024-07-01 14:56:05</t>
-  </si>
-  <si>
-    <t>mrt</t>
-  </si>
-  <si>
-    <t>12:Intern, 29:KMUTT</t>
-  </si>
-  <si>
-    <t>2024-07-02 00:00:00</t>
-  </si>
-  <si>
-    <t>ซื้อสลาก</t>
-  </si>
-  <si>
-    <t>ความบันเทิง</t>
-  </si>
-  <si>
-    <t>28:invest</t>
-  </si>
-  <si>
-    <t>ข้าว</t>
-  </si>
-  <si>
-    <t>2024-07-03 00:00:00</t>
-  </si>
-  <si>
-    <t>2024-07-03 18:33:21</t>
-  </si>
-  <si>
-    <t>2024-07-04 10:19:46</t>
-  </si>
-  <si>
-    <t>iMac</t>
-  </si>
-  <si>
-    <t>การศึกษา</t>
-  </si>
-  <si>
-    <t>2024-07-04 10:45:00</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>รายได้จากการลงทุน</t>
+    <t>Food1</t>
+  </si>
+  <si>
+    <t>Food2</t>
+  </si>
+  <si>
+    <t>Food3</t>
+  </si>
+  <si>
+    <t>Food4</t>
+  </si>
+  <si>
+    <t>Food</t>
   </si>
 </sst>
 </file>
@@ -579,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I38"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -601,584 +541,995 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>172</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D5">
-        <v>12000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>83</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>5000</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="B14">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>83</v>
+        <v>760</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>84</v>
+        <v>761</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>70</v>
+        <v>762</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>82</v>
+        <v>763</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>86</v>
+        <v>764</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>5000</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>87</v>
+        <v>765</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>2000</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>766</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>767</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>768</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>769</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>770</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>771</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>772</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>773</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>774</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>775</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>776</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>777</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>778</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>779</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>780</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
